--- a/medicine/Pharmacie/1675_en_santé_et_médecine/1675_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1675_en_santé_et_médecine/1675_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1675_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1675_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1675 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1675_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1675_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1675_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1675_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Louis Fouquet, fils de Marie de Maupeou dite Mme Fouquet (1590-1681) et frère de Nicolas Fouquet, célèbre surintendant des Finances de Louis XIV, fait publier les recettes de remèdes de sa mère[1]. Cette dame de charité soignait les pauvres et confectionnait ses propres préparations dont elle conservait les formules[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Louis Fouquet, fils de Marie de Maupeou dite Mme Fouquet (1590-1681) et frère de Nicolas Fouquet, célèbre surintendant des Finances de Louis XIV, fait publier les recettes de remèdes de sa mère. Cette dame de charité soignait les pauvres et confectionnait ses propres préparations dont elle conservait les formules.</t>
         </is>
       </c>
     </row>
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1675_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1675_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,7 +583,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>21 mars : James Douglas (mort en 1742), médecin et anatomiste britannique.</t>
         </is>
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1675_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1675_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,10 +615,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 février : Johann Heinrich Glaser (né en 1629), médecin suisse[3].
-8 juin : Jan Jonston (né en 1603), médecin polonais[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 février : Johann Heinrich Glaser (né en 1629), médecin suisse.
+8 juin : Jan Jonston (né en 1603), médecin polonais.</t>
         </is>
       </c>
     </row>
